--- a/data/trans_orig/P32C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32C-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0564FA3D-C2DD-4B4A-ADDE-1604EB5B39E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E1B41E6-FD96-434F-A980-320BCC1E4A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9EDE2586-9807-4307-8DC4-CFE362FB4C5E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{519B58EC-5041-46C0-99E4-A2B647AA5AEC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="402">
   <si>
     <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>3,81%</t>
   </si>
   <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
+    <t>6,37%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,30 +107,30 @@
     <t>96,19%</t>
   </si>
   <si>
-    <t>91,57%</t>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
   </si>
   <si>
     <t>98,74%</t>
   </si>
   <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
@@ -140,10 +140,10 @@
     <t>2,63%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
   </si>
   <si>
     <t>0%</t>
@@ -158,16 +158,16 @@
     <t>0,71%</t>
   </si>
   <si>
-    <t>4,24%</t>
+    <t>4,07%</t>
   </si>
   <si>
     <t>97,37%</t>
   </si>
   <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
   </si>
   <si>
     <t>97,38%</t>
@@ -176,7 +176,7 @@
     <t>98,0%</t>
   </si>
   <si>
-    <t>95,76%</t>
+    <t>95,93%</t>
   </si>
   <si>
     <t>99,29%</t>
@@ -188,1060 +188,1054 @@
     <t>0,48%</t>
   </si>
   <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2012 (Tasa respuesta: 44,06%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2015 (Tasa respuesta: 44,97%)</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
     <t>2,26%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
   </si>
   <si>
     <t>97,74%</t>
   </si>
   <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2023 (Tasa respuesta: 31,93%)</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
   </si>
   <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
   </si>
   <si>
     <t>96,52%</t>
   </si>
   <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2012 (Tasa respuesta: 44,06%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
   </si>
   <si>
     <t>5,08%</t>
   </si>
   <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
   </si>
   <si>
     <t>94,92%</t>
   </si>
   <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2015 (Tasa respuesta: 44,97%)</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
   </si>
   <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
   </si>
   <si>
     <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2023 (Tasa respuesta: 31,93%)</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
   </si>
   <si>
     <t>98,84%</t>
@@ -1662,7 +1656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3835FE26-57F9-4787-A360-827404D7DA4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A94679-585E-4740-9038-0A2103EEC3FD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2412,7 +2406,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2421,13 +2415,13 @@
         <v>1658</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2436,13 +2430,13 @@
         <v>2553</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2457,10 +2451,10 @@
         <v>96003</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -2472,10 +2466,10 @@
         <v>45638</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -2487,10 +2481,10 @@
         <v>141641</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -2549,7 +2543,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2561,13 +2555,13 @@
         <v>1912</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2582,7 +2576,7 @@
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2591,13 +2585,13 @@
         <v>2940</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,10 +2606,10 @@
         <v>192372</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -2627,10 +2621,10 @@
         <v>110755</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -2642,13 +2636,13 @@
         <v>303127</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,7 +2698,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2716,13 +2710,13 @@
         <v>7066</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2737,7 +2731,7 @@
         <v>35</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -2746,13 +2740,13 @@
         <v>7066</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,13 +2761,13 @@
         <v>281981</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H23" s="7">
         <v>130</v>
@@ -2785,7 +2779,7 @@
         <v>26</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>30</v>
@@ -2797,13 +2791,13 @@
         <v>413426</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,7 +2853,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2871,13 +2865,13 @@
         <v>6954</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2886,13 +2880,13 @@
         <v>3048</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -2901,13 +2895,13 @@
         <v>10002</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,13 +2916,13 @@
         <v>485934</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H26" s="7">
         <v>226</v>
@@ -2937,13 +2931,13 @@
         <v>236890</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M26" s="7">
         <v>701</v>
@@ -2952,10 +2946,10 @@
         <v>722824</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>130</v>
@@ -3041,13 +3035,13 @@
         <v>8180</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M28" s="7">
         <v>42</v>
@@ -3056,13 +3050,13 @@
         <v>43443</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,13 +3071,13 @@
         <v>1844656</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H29" s="7">
         <v>867</v>
@@ -3092,13 +3086,13 @@
         <v>886404</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M29" s="7">
         <v>2677</v>
@@ -3107,13 +3101,13 @@
         <v>2731060</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,7 +3163,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3193,7 +3187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9EAC64-3AD1-4196-A86D-EDCFF2B8B1C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07998BD3-2C4B-40D1-903C-44393A3EDCAF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3210,7 +3204,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3315,39 +3309,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,39 +3354,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,39 +3399,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3448,13 @@
         <v>4991</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3475,7 +3469,7 @@
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -3484,13 +3478,13 @@
         <v>4991</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3499,13 @@
         <v>304235</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H8" s="7">
         <v>137</v>
@@ -3523,7 +3517,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -3535,13 +3529,13 @@
         <v>453607</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,7 +3609,7 @@
         <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3630,7 +3624,7 @@
         <v>35</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3645,7 +3639,7 @@
         <v>35</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,7 +3657,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -3678,7 +3672,7 @@
         <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -3693,7 +3687,7 @@
         <v>26</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>30</v>
@@ -3764,13 +3758,13 @@
         <v>15503</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3779,13 +3773,13 @@
         <v>1012</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -3794,13 +3788,13 @@
         <v>16515</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3809,13 @@
         <v>346627</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H14" s="7">
         <v>177</v>
@@ -3830,10 +3824,10 @@
         <v>196022</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -3845,13 +3839,13 @@
         <v>542649</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,13 +3913,13 @@
         <v>3094</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3940,7 +3934,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3949,13 +3943,13 @@
         <v>3094</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,10 +3964,10 @@
         <v>125114</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>46</v>
@@ -3988,7 +3982,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -4000,13 +3994,13 @@
         <v>179223</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,7 +4056,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4074,13 +4068,13 @@
         <v>1054</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4095,7 +4089,7 @@
         <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -4104,13 +4098,13 @@
         <v>1054</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,10 +4119,10 @@
         <v>184152</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -4143,7 +4137,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -4155,10 +4149,10 @@
         <v>278358</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -4217,7 +4211,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4229,13 +4223,13 @@
         <v>8624</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -4250,7 +4244,7 @@
         <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -4259,13 +4253,13 @@
         <v>9625</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,13 +4274,13 @@
         <v>384703</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="H23" s="7">
         <v>190</v>
@@ -4298,7 +4292,7 @@
         <v>53</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>26</v>
@@ -4310,13 +4304,13 @@
         <v>593364</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,7 +4366,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4384,13 +4378,13 @@
         <v>7654</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4405,7 +4399,7 @@
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -4414,10 +4408,10 @@
         <v>8679</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>222</v>
@@ -4435,7 +4429,7 @@
         <v>447084</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>223</v>
@@ -4465,13 +4459,13 @@
         <v>660973</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>142</v>
+        <v>225</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4533,13 @@
         <v>40920</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -4554,13 +4548,13 @@
         <v>3038</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>89</v>
+        <v>230</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M28" s="7">
         <v>43</v>
@@ -4569,13 +4563,13 @@
         <v>43958</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4584,13 @@
         <v>1991315</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H29" s="7">
         <v>953</v>
@@ -4605,13 +4599,13 @@
         <v>1037511</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>96</v>
+        <v>238</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M29" s="7">
         <v>2824</v>
@@ -4620,13 +4614,13 @@
         <v>3028826</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,7 +4676,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4706,7 +4700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DAD8EF-DED8-4406-A473-01D22BB7B263}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54186A55-23E8-4ABD-BB50-B592ED1593FD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4723,7 +4717,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4830,13 +4824,13 @@
         <v>8097</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4845,13 +4839,13 @@
         <v>2026</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4860,13 +4854,13 @@
         <v>10123</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>154</v>
+        <v>250</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,13 +4875,13 @@
         <v>170575</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H5" s="7">
         <v>101</v>
@@ -4896,10 +4890,10 @@
         <v>103156</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -4911,13 +4905,13 @@
         <v>273731</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>258</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,13 +4979,13 @@
         <v>7458</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5006,7 +5000,7 @@
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -5015,13 +5009,13 @@
         <v>7458</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,13 +5030,13 @@
         <v>258911</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H8" s="7">
         <v>96</v>
@@ -5054,7 +5048,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -5066,13 +5060,13 @@
         <v>360185</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,13 +5134,13 @@
         <v>1834</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5155,13 +5149,13 @@
         <v>997</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>209</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -5170,13 +5164,13 @@
         <v>2831</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,10 +5185,10 @@
         <v>199698</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -5206,10 +5200,10 @@
         <v>121481</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>217</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -5221,13 +5215,13 @@
         <v>321179</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>107</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,7 +5295,7 @@
         <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5316,7 +5310,7 @@
         <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5331,7 +5325,7 @@
         <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,7 +5343,7 @@
         <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>30</v>
@@ -5364,7 +5358,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -5379,7 +5373,7 @@
         <v>26</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>30</v>
@@ -5456,7 +5450,7 @@
         <v>35</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5471,7 +5465,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5486,7 +5480,7 @@
         <v>35</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,7 +5498,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -5519,7 +5513,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -5534,7 +5528,7 @@
         <v>26</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>30</v>
@@ -5593,7 +5587,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5605,13 +5599,13 @@
         <v>1011</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5626,7 +5620,7 @@
         <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5635,13 +5629,13 @@
         <v>1011</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,10 +5650,10 @@
         <v>187275</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -5674,7 +5668,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -5686,10 +5680,10 @@
         <v>291272</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -5748,7 +5742,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5760,13 +5754,13 @@
         <v>9415</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>295</v>
+        <v>49</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -5775,13 +5769,13 @@
         <v>1006</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>246</v>
+        <v>299</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -5790,13 +5784,13 @@
         <v>10421</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>64</v>
+        <v>300</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,13 +5805,13 @@
         <v>373315</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>300</v>
+        <v>54</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="H23" s="7">
         <v>243</v>
@@ -5826,10 +5820,10 @@
         <v>259202</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>26</v>
@@ -5841,13 +5835,13 @@
         <v>632517</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>72</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,7 +5897,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5915,13 +5909,13 @@
         <v>4147</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>305</v>
+        <v>101</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -5930,7 +5924,7 @@
         <v>2181</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>308</v>
+        <v>232</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
@@ -5945,13 +5939,13 @@
         <v>6328</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>310</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>260</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +5960,13 @@
         <v>440626</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H26" s="7">
         <v>230</v>
@@ -5981,10 +5975,10 @@
         <v>250025</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>314</v>
+        <v>239</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>26</v>
@@ -5996,13 +5990,13 @@
         <v>690651</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>266</v>
+        <v>57</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6070,13 +6064,13 @@
         <v>31963</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>318</v>
+        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -6085,13 +6079,13 @@
         <v>6210</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>156</v>
+        <v>318</v>
       </c>
       <c r="M28" s="7">
         <v>36</v>
@@ -6100,13 +6094,13 @@
         <v>38173</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>322</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6121,13 +6115,13 @@
         <v>1949273</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>323</v>
+        <v>203</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H29" s="7">
         <v>1075</v>
@@ -6136,13 +6130,13 @@
         <v>1124004</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>162</v>
+        <v>323</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M29" s="7">
         <v>2918</v>
@@ -6151,13 +6145,13 @@
         <v>3073277</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>328</v>
+        <v>191</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6213,7 +6207,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -6237,7 +6231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94A5E7A-EB82-4D2A-A682-B143B99DB316}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECCEF30D-54AA-46BB-BFAE-15104E9BAFDB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6254,7 +6248,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6367,7 +6361,7 @@
         <v>35</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6382,7 +6376,7 @@
         <v>35</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6397,7 +6391,7 @@
         <v>35</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6415,7 +6409,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -6430,7 +6424,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -6445,7 +6439,7 @@
         <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>30</v>
@@ -6522,7 +6516,7 @@
         <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6537,7 +6531,7 @@
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6552,7 +6546,7 @@
         <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6570,7 +6564,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -6585,7 +6579,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>142</v>
+        <v>225</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -6600,7 +6594,7 @@
         <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>30</v>
@@ -6671,13 +6665,13 @@
         <v>4140</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>337</v>
+        <v>102</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -6686,13 +6680,13 @@
         <v>1124</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -6704,10 +6698,10 @@
         <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6722,13 +6716,13 @@
         <v>184802</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>339</v>
+        <v>108</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H11" s="7">
         <v>123</v>
@@ -6737,10 +6731,10 @@
         <v>94674</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -6755,10 +6749,10 @@
         <v>57</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>110</v>
+        <v>339</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6826,13 +6820,13 @@
         <v>2421</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -6841,13 +6835,13 @@
         <v>963</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>343</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -6856,13 +6850,13 @@
         <v>3384</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6877,13 +6871,13 @@
         <v>179890</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H14" s="7">
         <v>178</v>
@@ -6892,10 +6886,10 @@
         <v>133201</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -6907,10 +6901,10 @@
         <v>313091</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>225</v>
+        <v>348</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>349</v>
@@ -6987,7 +6981,7 @@
         <v>35</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>350</v>
+        <v>39</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -6996,13 +6990,13 @@
         <v>481</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7011,13 +7005,13 @@
         <v>481</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,7 +7029,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>354</v>
+        <v>45</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -7047,10 +7041,10 @@
         <v>9315</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -7062,10 +7056,10 @@
         <v>43845</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -7124,7 +7118,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7136,13 +7130,13 @@
         <v>3170</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -7151,13 +7145,13 @@
         <v>2400</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -7166,13 +7160,13 @@
         <v>5570</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7187,13 +7181,13 @@
         <v>166254</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H20" s="7">
         <v>145</v>
@@ -7202,13 +7196,13 @@
         <v>100936</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M20" s="7">
         <v>352</v>
@@ -7217,13 +7211,13 @@
         <v>267189</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7279,7 +7273,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7291,13 +7285,13 @@
         <v>7120</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -7306,13 +7300,13 @@
         <v>5270</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -7321,13 +7315,13 @@
         <v>12390</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7342,13 +7336,13 @@
         <v>301809</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="H23" s="7">
         <v>283</v>
@@ -7357,13 +7351,13 @@
         <v>315915</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M23" s="7">
         <v>567</v>
@@ -7372,13 +7366,13 @@
         <v>617724</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>384</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>385</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7434,7 +7428,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7446,13 +7440,13 @@
         <v>3124</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7467,7 +7461,7 @@
         <v>35</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -7476,13 +7470,13 @@
         <v>3124</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>387</v>
+        <v>116</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7497,13 +7491,13 @@
         <v>324023</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H26" s="7">
         <v>137</v>
@@ -7515,7 +7509,7 @@
         <v>26</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>30</v>
@@ -7527,10 +7521,10 @@
         <v>446334</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>390</v>
+        <v>125</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>26</v>
@@ -7601,13 +7595,13 @@
         <v>19975</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -7616,13 +7610,13 @@
         <v>10238</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>48</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>307</v>
+        <v>391</v>
       </c>
       <c r="M28" s="7">
         <v>36</v>
@@ -7631,13 +7625,13 @@
         <v>30214</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7652,13 +7646,13 @@
         <v>1597733</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H29" s="7">
         <v>1193</v>
@@ -7667,10 +7661,10 @@
         <v>986608</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>312</v>
+        <v>398</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>53</v>
@@ -7682,13 +7676,13 @@
         <v>2584340</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7744,7 +7738,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32C-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E1B41E6-FD96-434F-A980-320BCC1E4A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FB0BDCB-5C91-4D3E-8DEF-D244A087E0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{519B58EC-5041-46C0-99E4-A2B647AA5AEC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A27BAC1A-2EF0-400C-8600-F459BC2EFD1D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="384">
   <si>
     <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>3,81%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
   </si>
   <si>
     <t>1,35%</t>
@@ -89,16 +89,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,57%</t>
+    <t>7,84%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,16 +107,16 @@
     <t>96,19%</t>
   </si>
   <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
   </si>
   <si>
     <t>98,65%</t>
   </si>
   <si>
-    <t>92,43%</t>
+    <t>92,16%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,10 +125,10 @@
     <t>97,01%</t>
   </si>
   <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1111 +140,1057 @@
     <t>2,63%</t>
   </si>
   <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2012 (Tasa respuesta: 44,06%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2016 (Tasa respuesta: 44,97%)</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2023 (Tasa respuesta: 31,93%)</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
   </si>
   <si>
     <t>95,93%</t>
   </si>
   <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
   </si>
   <si>
     <t>99,17%</t>
   </si>
   <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
   </si>
   <si>
     <t>99,27%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
   </si>
   <si>
     <t>2,12%</t>
   </si>
   <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
+    <t>0,77%</t>
   </si>
   <si>
     <t>97,88%</t>
   </si>
   <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2012 (Tasa respuesta: 44,06%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2015 (Tasa respuesta: 44,97%)</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2023 (Tasa respuesta: 31,93%)</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
 </sst>
 </file>
@@ -1656,7 +1602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A94679-585E-4740-9038-0A2103EEC3FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A215996-C9D6-41DE-9BA6-9BF1E63B1080}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2400,13 +2346,13 @@
         <v>895</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2415,13 +2361,13 @@
         <v>1658</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2430,13 +2376,13 @@
         <v>2553</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,10 +2397,10 @@
         <v>96003</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -2466,10 +2412,10 @@
         <v>45638</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -2481,10 +2427,10 @@
         <v>141641</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -2543,7 +2489,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2555,13 +2501,13 @@
         <v>1912</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2570,13 +2516,13 @@
         <v>1028</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2585,13 +2531,13 @@
         <v>2940</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,10 +2552,10 @@
         <v>192372</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -2621,10 +2567,10 @@
         <v>110755</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -2636,13 +2582,13 @@
         <v>303127</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,7 +2644,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2710,13 +2656,13 @@
         <v>7066</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2731,7 +2677,7 @@
         <v>35</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -2740,13 +2686,13 @@
         <v>7066</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2761,13 +2707,13 @@
         <v>281981</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H23" s="7">
         <v>130</v>
@@ -2779,7 +2725,7 @@
         <v>26</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>30</v>
@@ -2791,13 +2737,13 @@
         <v>413426</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,7 +2799,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2865,13 +2811,13 @@
         <v>6954</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2880,13 +2826,13 @@
         <v>3048</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -2895,13 +2841,13 @@
         <v>10002</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2916,13 +2862,13 @@
         <v>485934</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H26" s="7">
         <v>226</v>
@@ -2931,13 +2877,13 @@
         <v>236890</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M26" s="7">
         <v>701</v>
@@ -2946,10 +2892,10 @@
         <v>722824</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>130</v>
@@ -3023,10 +2969,10 @@
         <v>131</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -3035,7 +2981,7 @@
         <v>8180</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>134</v>
@@ -3077,7 +3023,7 @@
         <v>140</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="H29" s="7">
         <v>867</v>
@@ -3086,7 +3032,7 @@
         <v>886404</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>142</v>
@@ -3187,7 +3133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07998BD3-2C4B-40D1-903C-44393A3EDCAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD269B44-9C2D-4C78-9E81-BE5FF8762FC6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3481,10 +3427,10 @@
         <v>154</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3445,13 @@
         <v>304235</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H8" s="7">
         <v>137</v>
@@ -3517,7 +3463,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -3529,13 +3475,13 @@
         <v>453607</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,7 +3555,7 @@
         <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3624,7 +3570,7 @@
         <v>35</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3639,7 +3585,7 @@
         <v>35</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,7 +3603,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -3672,7 +3618,7 @@
         <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -3687,7 +3633,7 @@
         <v>26</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>30</v>
@@ -3758,13 +3704,13 @@
         <v>15503</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>169</v>
+        <v>98</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3773,13 +3719,13 @@
         <v>1012</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -3788,13 +3734,13 @@
         <v>16515</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,7 +3761,7 @@
         <v>177</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>105</v>
       </c>
       <c r="H14" s="7">
         <v>177</v>
@@ -3824,10 +3770,10 @@
         <v>196022</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -3839,13 +3785,13 @@
         <v>542649</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +3859,13 @@
         <v>3094</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3934,7 +3880,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3943,13 +3889,13 @@
         <v>3094</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +3910,13 @@
         <v>125114</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>189</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -4056,7 +4002,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4211,7 +4157,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4226,10 +4172,10 @@
         <v>204</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -4244,7 +4190,7 @@
         <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -4253,13 +4199,13 @@
         <v>9625</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4220,13 @@
         <v>384703</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>213</v>
+        <v>94</v>
       </c>
       <c r="H23" s="7">
         <v>190</v>
@@ -4292,7 +4238,7 @@
         <v>53</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>26</v>
@@ -4304,13 +4250,13 @@
         <v>593364</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>217</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,7 +4312,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4378,13 +4324,13 @@
         <v>7654</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4399,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -4408,13 +4354,13 @@
         <v>8679</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>222</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,16 +4372,16 @@
         <v>410</v>
       </c>
       <c r="D26" s="7">
-        <v>447084</v>
+        <v>447083</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="H26" s="7">
         <v>196</v>
@@ -4447,7 +4393,7 @@
         <v>53</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>26</v>
@@ -4459,13 +4405,13 @@
         <v>660973</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>225</v>
+        <v>23</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>226</v>
+        <v>43</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,7 +4423,7 @@
         <v>416</v>
       </c>
       <c r="D27" s="7">
-        <v>454738</v>
+        <v>454737</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -4533,10 +4479,10 @@
         <v>40920</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>222</v>
@@ -4548,13 +4494,13 @@
         <v>3038</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>230</v>
+        <v>89</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="M28" s="7">
         <v>43</v>
@@ -4563,13 +4509,13 @@
         <v>43958</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,13 +4530,13 @@
         <v>1991315</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="H29" s="7">
         <v>953</v>
@@ -4599,13 +4545,13 @@
         <v>1037511</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>238</v>
+        <v>96</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M29" s="7">
         <v>2824</v>
@@ -4614,13 +4560,13 @@
         <v>3028826</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,7 +4646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54186A55-23E8-4ABD-BB50-B592ED1593FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B3F2F9-79A9-409D-B6F2-95AF619D9363}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4717,7 +4663,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4824,13 +4770,13 @@
         <v>8097</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4839,13 +4785,13 @@
         <v>2026</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4854,13 +4800,13 @@
         <v>10123</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4875,13 +4821,13 @@
         <v>170575</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="H5" s="7">
         <v>101</v>
@@ -4890,10 +4836,10 @@
         <v>103156</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -4905,13 +4851,13 @@
         <v>273731</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +4925,13 @@
         <v>7458</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>261</v>
+        <v>115</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5000,7 +4946,7 @@
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -5009,13 +4955,13 @@
         <v>7458</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,13 +4976,13 @@
         <v>258911</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>267</v>
+        <v>123</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>96</v>
@@ -5048,7 +4994,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -5060,13 +5006,13 @@
         <v>360185</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,13 +5080,13 @@
         <v>1834</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5149,13 +5095,13 @@
         <v>997</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>209</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -5164,13 +5110,13 @@
         <v>2831</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>100</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,10 +5131,10 @@
         <v>199698</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -5200,10 +5146,10 @@
         <v>121481</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>217</v>
+        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -5215,13 +5161,13 @@
         <v>321179</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>107</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,7 +5241,7 @@
         <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5325,7 +5271,7 @@
         <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,7 +5289,7 @@
         <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>30</v>
@@ -5358,7 +5304,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -5373,7 +5319,7 @@
         <v>26</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>30</v>
@@ -5450,7 +5396,7 @@
         <v>35</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5465,7 +5411,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5480,7 +5426,7 @@
         <v>35</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,7 +5444,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -5513,7 +5459,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -5528,7 +5474,7 @@
         <v>26</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>30</v>
@@ -5587,7 +5533,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5599,13 +5545,13 @@
         <v>1011</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5620,7 +5566,7 @@
         <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>290</v>
+        <v>238</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5629,13 +5575,13 @@
         <v>1011</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,10 +5596,10 @@
         <v>187275</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -5668,7 +5614,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>294</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -5680,10 +5626,10 @@
         <v>291272</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -5742,7 +5688,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5760,7 +5706,7 @@
         <v>62</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -5769,13 +5715,13 @@
         <v>1006</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>298</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>299</v>
+        <v>165</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -5784,13 +5730,13 @@
         <v>10421</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,7 +5754,7 @@
         <v>54</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>69</v>
@@ -5820,10 +5766,10 @@
         <v>259202</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>304</v>
+        <v>168</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>26</v>
@@ -5835,13 +5781,13 @@
         <v>632517</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5897,7 +5843,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5909,13 +5855,13 @@
         <v>4147</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>101</v>
+        <v>297</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -5924,13 +5870,13 @@
         <v>2181</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>232</v>
+        <v>300</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -5939,13 +5885,13 @@
         <v>6328</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>310</v>
+        <v>51</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>52</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,13 +5906,13 @@
         <v>440626</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>109</v>
+        <v>302</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H26" s="7">
         <v>230</v>
@@ -5975,10 +5921,10 @@
         <v>250025</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>239</v>
+        <v>305</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>313</v>
+        <v>213</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>26</v>
@@ -5990,13 +5936,13 @@
         <v>690651</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>57</v>
+        <v>306</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>314</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6067,10 +6013,10 @@
         <v>150</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>315</v>
+        <v>62</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>198</v>
+        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -6079,13 +6025,13 @@
         <v>6210</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>318</v>
+        <v>154</v>
       </c>
       <c r="M28" s="7">
         <v>36</v>
@@ -6094,13 +6040,13 @@
         <v>38173</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>186</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,13 +6061,13 @@
         <v>1949273</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>203</v>
+        <v>313</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>321</v>
+        <v>69</v>
       </c>
       <c r="H29" s="7">
         <v>1075</v>
@@ -6130,13 +6076,13 @@
         <v>1124004</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>323</v>
+        <v>161</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="M29" s="7">
         <v>2918</v>
@@ -6145,13 +6091,13 @@
         <v>3073277</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>191</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6231,7 +6177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECCEF30D-54AA-46BB-BFAE-15104E9BAFDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3E8C4F-1526-4573-BDF3-861873241F02}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6248,7 +6194,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6361,7 +6307,7 @@
         <v>35</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6376,7 +6322,7 @@
         <v>35</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6391,7 +6337,7 @@
         <v>35</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6409,7 +6355,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>322</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -6424,7 +6370,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -6439,7 +6385,7 @@
         <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>30</v>
@@ -6516,7 +6462,7 @@
         <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6531,7 +6477,7 @@
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6546,7 +6492,7 @@
         <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6564,7 +6510,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -6579,7 +6525,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>225</v>
+        <v>23</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -6594,7 +6540,7 @@
         <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>30</v>
@@ -6668,10 +6614,10 @@
         <v>204</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>334</v>
+        <v>88</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>102</v>
+        <v>328</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -6680,13 +6626,13 @@
         <v>1124</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -6698,10 +6644,10 @@
         <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6716,13 +6662,13 @@
         <v>184802</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>108</v>
+        <v>331</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>337</v>
+        <v>94</v>
       </c>
       <c r="H11" s="7">
         <v>123</v>
@@ -6731,10 +6677,10 @@
         <v>94674</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -6749,10 +6695,10 @@
         <v>57</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6820,13 +6766,13 @@
         <v>2421</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>341</v>
+        <v>155</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>335</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -6835,13 +6781,13 @@
         <v>963</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -6850,13 +6796,13 @@
         <v>3384</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6871,13 +6817,13 @@
         <v>179890</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>341</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>346</v>
+        <v>163</v>
       </c>
       <c r="H14" s="7">
         <v>178</v>
@@ -6886,10 +6832,10 @@
         <v>133201</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -6901,13 +6847,13 @@
         <v>313091</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6981,7 +6927,7 @@
         <v>35</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>39</v>
+        <v>346</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -6990,13 +6936,13 @@
         <v>481</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7011,7 +6957,7 @@
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>352</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7029,7 +6975,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>45</v>
+        <v>349</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -7041,10 +6987,10 @@
         <v>9315</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -7056,10 +7002,10 @@
         <v>43845</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>355</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -7118,7 +7064,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7130,13 +7076,13 @@
         <v>3170</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -7145,13 +7091,13 @@
         <v>2400</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>359</v>
+        <v>194</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -7160,13 +7106,13 @@
         <v>5570</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>33</v>
+        <v>356</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7181,13 +7127,13 @@
         <v>166254</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="H20" s="7">
         <v>145</v>
@@ -7196,13 +7142,13 @@
         <v>100936</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>366</v>
+        <v>199</v>
       </c>
       <c r="M20" s="7">
         <v>352</v>
@@ -7211,13 +7157,13 @@
         <v>267189</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>42</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7273,7 +7219,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7285,13 +7231,13 @@
         <v>7120</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>368</v>
+        <v>285</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>369</v>
+        <v>85</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -7300,13 +7246,13 @@
         <v>5270</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -7315,13 +7261,13 @@
         <v>12390</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>320</v>
+        <v>367</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7336,13 +7282,13 @@
         <v>301809</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>378</v>
+        <v>91</v>
       </c>
       <c r="H23" s="7">
         <v>283</v>
@@ -7351,13 +7297,13 @@
         <v>315915</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="M23" s="7">
         <v>567</v>
@@ -7366,13 +7312,13 @@
         <v>617724</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7428,7 +7374,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7440,13 +7386,13 @@
         <v>3124</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7470,13 +7416,13 @@
         <v>3124</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7491,13 +7437,13 @@
         <v>324023</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>226</v>
+        <v>40</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="H26" s="7">
         <v>137</v>
@@ -7509,7 +7455,7 @@
         <v>26</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>30</v>
@@ -7521,10 +7467,10 @@
         <v>446334</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>26</v>
@@ -7595,13 +7541,13 @@
         <v>19975</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>388</v>
+        <v>60</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>389</v>
+        <v>238</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -7610,13 +7556,13 @@
         <v>10238</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>390</v>
+        <v>226</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>48</v>
+        <v>378</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="M28" s="7">
         <v>36</v>
@@ -7625,13 +7571,13 @@
         <v>30214</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>392</v>
+        <v>137</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>394</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7643,16 +7589,16 @@
         <v>1563</v>
       </c>
       <c r="D29" s="7">
-        <v>1597733</v>
+        <v>1597732</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>395</v>
+        <v>247</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>396</v>
+        <v>68</v>
       </c>
       <c r="H29" s="7">
         <v>1193</v>
@@ -7661,28 +7607,28 @@
         <v>986608</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>397</v>
+        <v>235</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>53</v>
+        <v>382</v>
       </c>
       <c r="M29" s="7">
         <v>2756</v>
       </c>
       <c r="N29" s="7">
-        <v>2584340</v>
+        <v>2584339</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>399</v>
+        <v>146</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>400</v>
+        <v>212</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7694,7 +7640,7 @@
         <v>1587</v>
       </c>
       <c r="D30" s="7">
-        <v>1617708</v>
+        <v>1617707</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -7724,7 +7670,7 @@
         <v>2792</v>
       </c>
       <c r="N30" s="7">
-        <v>2614554</v>
+        <v>2614553</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P32C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32C-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FB0BDCB-5C91-4D3E-8DEF-D244A087E0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53C21885-1C7A-447A-B817-1F2E46D63BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A27BAC1A-2EF0-400C-8600-F459BC2EFD1D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CFE85DA8-7F68-4D10-B395-885BD5CB0A71}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="404">
   <si>
     <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -71,1126 +71,1186 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>3,81%</t>
   </si>
   <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
   </si>
   <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2012 (Tasa respuesta: 44,06%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2016 (Tasa respuesta: 44,97%)</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2023 (Tasa respuesta: 31,93%)</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
   </si>
   <si>
     <t>99,31%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
   </si>
   <si>
     <t>98,84%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2012 (Tasa respuesta: 44,06%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2016 (Tasa respuesta: 44,97%)</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2023 (Tasa respuesta: 31,93%)</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
   </si>
 </sst>
 </file>
@@ -1602,7 +1662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A215996-C9D6-41DE-9BA6-9BF1E63B1080}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E17C89-2923-4D9C-85ED-11DC3DB219B9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2346,13 +2406,13 @@
         <v>895</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2397,10 +2457,10 @@
         <v>96003</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -2516,7 +2576,7 @@
         <v>1028</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
@@ -2567,7 +2627,7 @@
         <v>110755</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>93</v>
@@ -2969,10 +3029,10 @@
         <v>131</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -2981,13 +3041,13 @@
         <v>8180</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M28" s="7">
         <v>42</v>
@@ -2996,13 +3056,13 @@
         <v>43443</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,13 +3077,13 @@
         <v>1844656</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="H29" s="7">
         <v>867</v>
@@ -3032,13 +3092,13 @@
         <v>886404</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M29" s="7">
         <v>2677</v>
@@ -3047,13 +3107,13 @@
         <v>2731060</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,7 +3169,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3133,7 +3193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD269B44-9C2D-4C78-9E81-BE5FF8762FC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52123D8-AAA2-41F9-B8AA-2C6E474669CD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3150,7 +3210,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3255,39 +3315,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,39 +3360,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3345,39 +3405,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,13 +3454,13 @@
         <v>4991</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3415,7 +3475,7 @@
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -3424,13 +3484,13 @@
         <v>4991</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,13 +3505,13 @@
         <v>304235</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H8" s="7">
         <v>137</v>
@@ -3463,7 +3523,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -3475,13 +3535,13 @@
         <v>453607</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,10 +3767,10 @@
         <v>170</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3719,13 +3779,13 @@
         <v>1012</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -3734,13 +3794,13 @@
         <v>16515</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,13 +3815,13 @@
         <v>346627</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="H14" s="7">
         <v>177</v>
@@ -3770,10 +3830,10 @@
         <v>196022</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -3785,13 +3845,13 @@
         <v>542649</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,13 +3919,13 @@
         <v>3094</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3880,7 +3940,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3889,13 +3949,13 @@
         <v>3094</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,13 +3970,13 @@
         <v>125114</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -3928,7 +3988,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -3940,13 +4000,13 @@
         <v>179223</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +4074,13 @@
         <v>1054</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4035,7 +4095,7 @@
         <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -4044,13 +4104,13 @@
         <v>1054</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,10 +4125,10 @@
         <v>184152</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -4083,7 +4143,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -4095,10 +4155,10 @@
         <v>278358</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -4169,13 +4229,13 @@
         <v>8624</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -4190,7 +4250,7 @@
         <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -4199,13 +4259,13 @@
         <v>9625</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>60</v>
+        <v>212</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,13 +4280,13 @@
         <v>384703</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="H23" s="7">
         <v>190</v>
@@ -4238,7 +4298,7 @@
         <v>53</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>26</v>
@@ -4250,13 +4310,13 @@
         <v>593364</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>68</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,10 +4387,10 @@
         <v>102</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4345,7 +4405,7 @@
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -4354,13 +4414,13 @@
         <v>8679</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>36</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,16 +4432,16 @@
         <v>410</v>
       </c>
       <c r="D26" s="7">
-        <v>447083</v>
+        <v>447084</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>109</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="H26" s="7">
         <v>196</v>
@@ -4393,7 +4453,7 @@
         <v>53</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>26</v>
@@ -4405,13 +4465,13 @@
         <v>660973</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>43</v>
+        <v>225</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,7 +4483,7 @@
         <v>416</v>
       </c>
       <c r="D27" s="7">
-        <v>454737</v>
+        <v>454738</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -4479,13 +4539,13 @@
         <v>40920</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -4497,10 +4557,10 @@
         <v>89</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M28" s="7">
         <v>43</v>
@@ -4509,13 +4569,13 @@
         <v>43958</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,13 +4590,13 @@
         <v>1991315</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="H29" s="7">
         <v>953</v>
@@ -4548,10 +4608,10 @@
         <v>96</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M29" s="7">
         <v>2824</v>
@@ -4560,13 +4620,13 @@
         <v>3028826</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,7 +4682,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4646,7 +4706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B3F2F9-79A9-409D-B6F2-95AF619D9363}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366CA5F9-2399-4EF9-ABB7-33AA037E2826}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4663,7 +4723,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4770,13 +4830,13 @@
         <v>8097</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4785,13 +4845,13 @@
         <v>2026</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4800,13 +4860,13 @@
         <v>10123</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>242</v>
+        <v>154</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +4881,13 @@
         <v>170575</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H5" s="7">
         <v>101</v>
@@ -4836,10 +4896,10 @@
         <v>103156</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -4851,13 +4911,13 @@
         <v>273731</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>250</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +4985,13 @@
         <v>7458</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>115</v>
+        <v>257</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4946,7 +5006,7 @@
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -4955,13 +5015,13 @@
         <v>7458</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +5036,13 @@
         <v>258911</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>123</v>
+        <v>263</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H8" s="7">
         <v>96</v>
@@ -4994,7 +5054,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -5006,13 +5066,13 @@
         <v>360185</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,13 +5140,13 @@
         <v>1834</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5095,13 +5155,13 @@
         <v>997</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -5110,13 +5170,13 @@
         <v>2831</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,10 +5191,10 @@
         <v>199698</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -5146,10 +5206,10 @@
         <v>121481</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -5161,13 +5221,13 @@
         <v>321179</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,7 +5301,7 @@
         <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5256,7 +5316,7 @@
         <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5271,7 +5331,7 @@
         <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,7 +5349,7 @@
         <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>30</v>
@@ -5304,7 +5364,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -5319,7 +5379,7 @@
         <v>26</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>30</v>
@@ -5396,7 +5456,7 @@
         <v>35</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5411,7 +5471,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5426,7 +5486,7 @@
         <v>35</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5444,7 +5504,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -5459,7 +5519,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -5474,7 +5534,7 @@
         <v>26</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>30</v>
@@ -5545,13 +5605,13 @@
         <v>1011</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5566,7 +5626,7 @@
         <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5575,13 +5635,13 @@
         <v>1011</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5596,10 +5656,10 @@
         <v>187275</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -5614,7 +5674,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>292</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -5626,10 +5686,10 @@
         <v>291272</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -5700,13 +5760,13 @@
         <v>9415</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>49</v>
+        <v>295</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -5715,13 +5775,13 @@
         <v>1006</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>297</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>165</v>
+        <v>246</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -5730,13 +5790,13 @@
         <v>10421</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>291</v>
+        <v>64</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,13 +5811,13 @@
         <v>373315</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>54</v>
+        <v>300</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="H23" s="7">
         <v>243</v>
@@ -5766,10 +5826,10 @@
         <v>259202</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>302</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>168</v>
+        <v>253</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>26</v>
@@ -5781,13 +5841,13 @@
         <v>632517</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>296</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,13 +5915,13 @@
         <v>4147</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -5870,13 +5930,13 @@
         <v>2181</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>208</v>
+        <v>309</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -5885,13 +5945,13 @@
         <v>6328</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>51</v>
+        <v>310</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,13 +5966,13 @@
         <v>440626</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="H26" s="7">
         <v>230</v>
@@ -5921,10 +5981,10 @@
         <v>250025</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>213</v>
+        <v>315</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>26</v>
@@ -5936,13 +5996,13 @@
         <v>690651</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>56</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,13 +6070,13 @@
         <v>31963</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>62</v>
+        <v>317</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -6025,13 +6085,13 @@
         <v>6210</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M28" s="7">
         <v>36</v>
@@ -6040,13 +6100,13 @@
         <v>38173</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6061,13 +6121,13 @@
         <v>1949273</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>69</v>
+        <v>324</v>
       </c>
       <c r="H29" s="7">
         <v>1075</v>
@@ -6076,13 +6136,13 @@
         <v>1124004</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="M29" s="7">
         <v>2918</v>
@@ -6091,13 +6151,13 @@
         <v>3073277</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6153,7 +6213,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -6177,7 +6237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3E8C4F-1526-4573-BDF3-861873241F02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD8004A-1279-4AAB-A630-C00D3756D447}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6194,7 +6254,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6307,7 +6367,7 @@
         <v>35</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>232</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6322,7 +6382,7 @@
         <v>35</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6337,7 +6397,7 @@
         <v>35</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,7 +6415,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>322</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -6370,7 +6430,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -6385,7 +6445,7 @@
         <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>30</v>
@@ -6462,7 +6522,7 @@
         <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6477,7 +6537,7 @@
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6492,7 +6552,7 @@
         <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6510,7 +6570,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -6525,7 +6585,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -6540,7 +6600,7 @@
         <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>30</v>
@@ -6611,13 +6671,13 @@
         <v>4140</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>88</v>
+        <v>336</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -6626,13 +6686,13 @@
         <v>1124</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -6644,10 +6704,10 @@
         <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>330</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6662,13 +6722,13 @@
         <v>184802</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>94</v>
+        <v>340</v>
       </c>
       <c r="H11" s="7">
         <v>123</v>
@@ -6677,10 +6737,10 @@
         <v>94674</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -6695,10 +6755,10 @@
         <v>57</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>333</v>
+        <v>110</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6766,13 +6826,13 @@
         <v>2421</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>155</v>
+        <v>343</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>335</v>
+        <v>75</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -6781,13 +6841,13 @@
         <v>963</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>337</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -6796,13 +6856,13 @@
         <v>3384</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>339</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6817,13 +6877,13 @@
         <v>179890</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>163</v>
+        <v>347</v>
       </c>
       <c r="H14" s="7">
         <v>178</v>
@@ -6832,10 +6892,10 @@
         <v>133201</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>343</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -6847,13 +6907,13 @@
         <v>313091</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>344</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6927,7 +6987,7 @@
         <v>35</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -6936,13 +6996,13 @@
         <v>481</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -6951,13 +7011,13 @@
         <v>481</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>61</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6975,7 +7035,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -6987,10 +7047,10 @@
         <v>9315</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -7002,10 +7062,10 @@
         <v>43845</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>67</v>
+        <v>357</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -7076,13 +7136,13 @@
         <v>3170</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -7091,13 +7151,13 @@
         <v>2400</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>194</v>
+        <v>361</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -7106,13 +7166,13 @@
         <v>5570</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>356</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7127,13 +7187,13 @@
         <v>166254</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="H20" s="7">
         <v>145</v>
@@ -7142,13 +7202,13 @@
         <v>100936</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>199</v>
+        <v>368</v>
       </c>
       <c r="M20" s="7">
         <v>352</v>
@@ -7157,13 +7217,13 @@
         <v>267189</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>361</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7231,13 +7291,13 @@
         <v>7120</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>285</v>
+        <v>370</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>85</v>
+        <v>371</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -7246,13 +7306,13 @@
         <v>5270</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>365</v>
+        <v>191</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -7261,13 +7321,13 @@
         <v>12390</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7282,13 +7342,13 @@
         <v>301809</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>288</v>
+        <v>378</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>91</v>
+        <v>380</v>
       </c>
       <c r="H23" s="7">
         <v>283</v>
@@ -7297,13 +7357,13 @@
         <v>315915</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>371</v>
+        <v>196</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="M23" s="7">
         <v>567</v>
@@ -7312,13 +7372,13 @@
         <v>617724</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7389,10 +7449,10 @@
         <v>164</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7407,7 +7467,7 @@
         <v>35</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -7416,13 +7476,13 @@
         <v>3124</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>38</v>
+        <v>387</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7440,10 +7500,10 @@
         <v>167</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="H26" s="7">
         <v>137</v>
@@ -7455,7 +7515,7 @@
         <v>26</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>30</v>
@@ -7467,10 +7527,10 @@
         <v>446334</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>46</v>
+        <v>390</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>26</v>
@@ -7541,13 +7601,13 @@
         <v>19975</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>60</v>
+        <v>392</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>238</v>
+        <v>393</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -7556,13 +7616,13 @@
         <v>10238</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>226</v>
+        <v>394</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>378</v>
+        <v>48</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>379</v>
+        <v>307</v>
       </c>
       <c r="M28" s="7">
         <v>36</v>
@@ -7571,13 +7631,13 @@
         <v>30214</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>137</v>
+        <v>395</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>207</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7589,16 +7649,16 @@
         <v>1563</v>
       </c>
       <c r="D29" s="7">
-        <v>1597732</v>
+        <v>1597733</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>247</v>
+        <v>398</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>68</v>
+        <v>399</v>
       </c>
       <c r="H29" s="7">
         <v>1193</v>
@@ -7607,28 +7667,28 @@
         <v>986608</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>235</v>
+        <v>400</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>381</v>
+        <v>312</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>382</v>
+        <v>53</v>
       </c>
       <c r="M29" s="7">
         <v>2756</v>
       </c>
       <c r="N29" s="7">
-        <v>2584339</v>
+        <v>2584340</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>146</v>
+        <v>401</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>212</v>
+        <v>402</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7640,7 +7700,7 @@
         <v>1587</v>
       </c>
       <c r="D30" s="7">
-        <v>1617707</v>
+        <v>1617708</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -7670,7 +7730,7 @@
         <v>2792</v>
       </c>
       <c r="N30" s="7">
-        <v>2614553</v>
+        <v>2614554</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -7684,7 +7744,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32C-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53C21885-1C7A-447A-B817-1F2E46D63BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{245A5803-95F0-41CA-A048-CBEF449B3488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CFE85DA8-7F68-4D10-B395-885BD5CB0A71}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{238099FD-1D77-4107-A088-7168BD003CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="409">
   <si>
     <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -494,7 +494,40 @@
     <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2012 (Tasa respuesta: 44,06%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
   </si>
   <si>
     <t>1,61%</t>
@@ -551,706 +584,688 @@
     <t>99,39%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2016 (Tasa respuesta: 44,97%)</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2023 (Tasa respuesta: 31,93%)</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
   </si>
   <si>
     <t>98,22%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2016 (Tasa respuesta: 44,97%)</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2023 (Tasa respuesta: 31,93%)</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
   </si>
 </sst>
 </file>
@@ -1662,7 +1677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E17C89-2923-4D9C-85ED-11DC3DB219B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977F7434-83EB-4A4B-BD3D-602D0A766304}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3193,7 +3208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52123D8-AAA2-41F9-B8AA-2C6E474669CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECC08C7-356F-45AC-879E-B4F1E1DE4C74}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3311,43 +3326,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="D4" s="7">
+        <v>11537</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>151</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1012</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="N4" s="7">
+        <v>12549</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,43 +3377,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="D5" s="7">
+        <v>163788</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>94</v>
+      </c>
+      <c r="I5" s="7">
+        <v>108680</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>250</v>
+      </c>
+      <c r="N5" s="7">
+        <v>272468</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,43 +3428,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>168</v>
+      </c>
+      <c r="D6" s="7">
+        <v>175325</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="I6" s="7">
+        <v>109692</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>263</v>
+      </c>
+      <c r="N6" s="7">
+        <v>285017</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3487,13 @@
         <v>4991</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3475,7 +3508,7 @@
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -3484,13 +3517,13 @@
         <v>4991</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>135</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3538,13 @@
         <v>304235</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>137</v>
@@ -3523,7 +3556,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -3535,10 +3568,10 @@
         <v>453607</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>145</v>
@@ -3615,7 +3648,7 @@
         <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3630,7 +3663,7 @@
         <v>35</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3645,7 +3678,7 @@
         <v>35</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,7 +3696,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -3678,7 +3711,7 @@
         <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -3693,7 +3726,7 @@
         <v>26</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>30</v>
@@ -3758,49 +3791,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>15503</v>
+        <v>3966</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>1012</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>16515</v>
+        <v>3966</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,49 +3842,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>321</v>
+        <v>165</v>
       </c>
       <c r="D14" s="7">
-        <v>346627</v>
+        <v>182839</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="I14" s="7">
-        <v>196022</v>
+        <v>87342</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M14" s="7">
-        <v>498</v>
+        <v>248</v>
       </c>
       <c r="N14" s="7">
-        <v>542649</v>
+        <v>270181</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,10 +3893,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>337</v>
+        <v>169</v>
       </c>
       <c r="D15" s="7">
-        <v>362130</v>
+        <v>186805</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3875,10 +3908,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="I15" s="7">
-        <v>197034</v>
+        <v>87342</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3890,10 +3923,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>515</v>
+        <v>252</v>
       </c>
       <c r="N15" s="7">
-        <v>559164</v>
+        <v>274147</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3919,13 +3952,13 @@
         <v>3094</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3940,7 +3973,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3949,13 +3982,13 @@
         <v>3094</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,10 +4003,10 @@
         <v>125114</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>46</v>
@@ -3988,7 +4021,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -4000,13 +4033,13 @@
         <v>179223</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,13 +4107,13 @@
         <v>1054</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4095,7 +4128,7 @@
         <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -4104,13 +4137,13 @@
         <v>1054</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,10 +4158,10 @@
         <v>184152</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -4143,7 +4176,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -4155,10 +4188,10 @@
         <v>278358</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -4229,13 +4262,13 @@
         <v>8624</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -4250,7 +4283,7 @@
         <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -4259,13 +4292,13 @@
         <v>9625</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,10 +4313,10 @@
         <v>384703</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>68</v>
@@ -4298,7 +4331,7 @@
         <v>53</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>26</v>
@@ -4310,13 +4343,13 @@
         <v>593364</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,7 +4423,7 @@
         <v>38</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4405,7 +4438,7 @@
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -4417,10 +4450,10 @@
         <v>132</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4465,13 @@
         <v>410</v>
       </c>
       <c r="D26" s="7">
-        <v>447084</v>
+        <v>447083</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>109</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>46</v>
@@ -4453,7 +4486,7 @@
         <v>53</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>26</v>
@@ -4468,10 +4501,10 @@
         <v>142</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,7 +4516,7 @@
         <v>416</v>
       </c>
       <c r="D27" s="7">
-        <v>454738</v>
+        <v>454737</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -4539,13 +4572,13 @@
         <v>40920</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -4557,10 +4590,10 @@
         <v>89</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="M28" s="7">
         <v>43</v>
@@ -4569,13 +4602,13 @@
         <v>43958</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4623,13 @@
         <v>1991315</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="H29" s="7">
         <v>953</v>
@@ -4608,25 +4641,25 @@
         <v>96</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="M29" s="7">
         <v>2824</v>
       </c>
       <c r="N29" s="7">
-        <v>3028826</v>
+        <v>3028827</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,7 +4701,7 @@
         <v>2867</v>
       </c>
       <c r="N30" s="7">
-        <v>3072784</v>
+        <v>3072785</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -4706,7 +4739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366CA5F9-2399-4EF9-ABB7-33AA037E2826}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20014F1-C842-4A2C-A782-7EA8C232488B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4723,7 +4756,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4830,13 +4863,13 @@
         <v>8097</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4845,13 +4878,13 @@
         <v>2026</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4860,13 +4893,13 @@
         <v>10123</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,13 +4914,13 @@
         <v>170575</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="H5" s="7">
         <v>101</v>
@@ -4896,10 +4929,10 @@
         <v>103156</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -4911,13 +4944,13 @@
         <v>273731</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,13 +5018,13 @@
         <v>7458</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5006,7 +5039,7 @@
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -5015,13 +5048,13 @@
         <v>7458</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,13 +5069,13 @@
         <v>258911</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="H8" s="7">
         <v>96</v>
@@ -5054,7 +5087,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -5066,10 +5099,10 @@
         <v>360185</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>42</v>
@@ -5146,7 +5179,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5161,7 +5194,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -5170,13 +5203,13 @@
         <v>2831</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,7 +5227,7 @@
         <v>143</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -5209,7 +5242,7 @@
         <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -5221,13 +5254,13 @@
         <v>321179</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,7 +5334,7 @@
         <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5316,7 +5349,7 @@
         <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5331,7 +5364,7 @@
         <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,7 +5382,7 @@
         <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>30</v>
@@ -5364,7 +5397,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -5379,7 +5412,7 @@
         <v>26</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>30</v>
@@ -5456,7 +5489,7 @@
         <v>35</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5471,7 +5504,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5486,7 +5519,7 @@
         <v>35</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,7 +5537,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -5519,7 +5552,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -5534,7 +5567,7 @@
         <v>26</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>30</v>
@@ -5605,13 +5638,13 @@
         <v>1011</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5626,7 +5659,7 @@
         <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5635,13 +5668,13 @@
         <v>1011</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,10 +5689,10 @@
         <v>187275</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -5674,7 +5707,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -5686,10 +5719,10 @@
         <v>291272</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -5760,13 +5793,13 @@
         <v>9415</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -5775,13 +5808,13 @@
         <v>1006</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -5790,13 +5823,13 @@
         <v>10421</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>64</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,10 +5844,10 @@
         <v>373315</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>107</v>
@@ -5826,10 +5859,10 @@
         <v>259202</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>26</v>
@@ -5841,10 +5874,10 @@
         <v>632517</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>72</v>
@@ -5915,13 +5948,13 @@
         <v>4147</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -5930,13 +5963,13 @@
         <v>2181</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -5948,10 +5981,10 @@
         <v>134</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +5999,13 @@
         <v>440626</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="H26" s="7">
         <v>230</v>
@@ -5981,10 +6014,10 @@
         <v>250025</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>26</v>
@@ -5999,10 +6032,10 @@
         <v>143</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6070,13 +6103,13 @@
         <v>31963</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -6085,13 +6118,13 @@
         <v>6210</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>319</v>
+        <v>182</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>36</v>
@@ -6100,13 +6133,13 @@
         <v>38173</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6121,13 +6154,13 @@
         <v>1949273</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H29" s="7">
         <v>1075</v>
@@ -6136,13 +6169,13 @@
         <v>1124004</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>325</v>
+        <v>190</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="M29" s="7">
         <v>2918</v>
@@ -6151,13 +6184,13 @@
         <v>3073277</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6237,7 +6270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD8004A-1279-4AAB-A630-C00D3756D447}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5358A202-EFDF-4695-A08B-4C6E48CD40F6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6254,7 +6287,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6367,7 +6400,7 @@
         <v>35</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6382,7 +6415,7 @@
         <v>35</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6397,7 +6430,7 @@
         <v>35</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>319</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6409,13 +6442,13 @@
         <v>184</v>
       </c>
       <c r="D5" s="7">
-        <v>154480</v>
+        <v>179889</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -6424,13 +6457,13 @@
         <v>163</v>
       </c>
       <c r="I5" s="7">
-        <v>84957</v>
+        <v>90683</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -6439,13 +6472,13 @@
         <v>347</v>
       </c>
       <c r="N5" s="7">
-        <v>239437</v>
+        <v>270572</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>325</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>30</v>
@@ -6460,7 +6493,7 @@
         <v>184</v>
       </c>
       <c r="D6" s="7">
-        <v>154480</v>
+        <v>179889</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -6475,7 +6508,7 @@
         <v>163</v>
       </c>
       <c r="I6" s="7">
-        <v>84957</v>
+        <v>90683</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -6490,7 +6523,7 @@
         <v>347</v>
       </c>
       <c r="N6" s="7">
-        <v>239437</v>
+        <v>270572</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -6522,7 +6555,7 @@
         <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6552,7 +6585,7 @@
         <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6564,13 +6597,13 @@
         <v>179</v>
       </c>
       <c r="D8" s="7">
-        <v>251945</v>
+        <v>254456</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -6579,7 +6612,7 @@
         <v>146</v>
       </c>
       <c r="I8" s="7">
-        <v>125299</v>
+        <v>116970</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>26</v>
@@ -6594,13 +6627,13 @@
         <v>325</v>
       </c>
       <c r="N8" s="7">
-        <v>377244</v>
+        <v>371426</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>30</v>
@@ -6615,7 +6648,7 @@
         <v>179</v>
       </c>
       <c r="D9" s="7">
-        <v>251945</v>
+        <v>254456</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6630,7 +6663,7 @@
         <v>146</v>
       </c>
       <c r="I9" s="7">
-        <v>125299</v>
+        <v>116970</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6645,7 +6678,7 @@
         <v>325</v>
       </c>
       <c r="N9" s="7">
-        <v>377244</v>
+        <v>371426</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6668,46 +6701,46 @@
         <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>4140</v>
+        <v>3909</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>208</v>
+        <v>343</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>336</v>
+        <v>64</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1124</v>
+        <v>1051</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>5264</v>
+        <v>4960</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>347</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>336</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>104</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6719,28 +6752,28 @@
         <v>205</v>
       </c>
       <c r="D11" s="7">
-        <v>184802</v>
+        <v>181277</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>214</v>
+        <v>349</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>340</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>123</v>
       </c>
       <c r="I11" s="7">
-        <v>94674</v>
+        <v>89221</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -6749,16 +6782,16 @@
         <v>328</v>
       </c>
       <c r="N11" s="7">
-        <v>279476</v>
+        <v>270498</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>57</v>
+        <v>353</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>110</v>
+        <v>354</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>340</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6770,7 +6803,7 @@
         <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>188942</v>
+        <v>185186</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6785,7 +6818,7 @@
         <v>125</v>
       </c>
       <c r="I12" s="7">
-        <v>95798</v>
+        <v>90272</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6800,7 +6833,7 @@
         <v>337</v>
       </c>
       <c r="N12" s="7">
-        <v>284740</v>
+        <v>275458</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6823,46 +6856,46 @@
         <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>2421</v>
+        <v>2314</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>75</v>
+        <v>355</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>963</v>
+        <v>902</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>357</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>3384</v>
+        <v>3216</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6874,28 +6907,28 @@
         <v>158</v>
       </c>
       <c r="D14" s="7">
-        <v>179890</v>
+        <v>175864</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>346</v>
+        <v>142</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="H14" s="7">
         <v>178</v>
       </c>
       <c r="I14" s="7">
-        <v>133201</v>
+        <v>123443</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>363</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -6904,16 +6937,16 @@
         <v>336</v>
       </c>
       <c r="N14" s="7">
-        <v>313091</v>
+        <v>299308</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>225</v>
+        <v>365</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6925,7 +6958,7 @@
         <v>161</v>
       </c>
       <c r="D15" s="7">
-        <v>182311</v>
+        <v>178178</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6940,7 +6973,7 @@
         <v>180</v>
       </c>
       <c r="I15" s="7">
-        <v>134164</v>
+        <v>124345</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6955,7 +6988,7 @@
         <v>341</v>
       </c>
       <c r="N15" s="7">
-        <v>316475</v>
+        <v>302524</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6987,37 +7020,37 @@
         <v>35</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>481</v>
+        <v>440</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>481</v>
+        <v>440</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7029,13 +7062,13 @@
         <v>46</v>
       </c>
       <c r="D17" s="7">
-        <v>34530</v>
+        <v>31146</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -7044,13 +7077,13 @@
         <v>18</v>
       </c>
       <c r="I17" s="7">
-        <v>9315</v>
+        <v>8143</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -7059,13 +7092,13 @@
         <v>64</v>
       </c>
       <c r="N17" s="7">
-        <v>43845</v>
+        <v>39289</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>162</v>
+        <v>69</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -7080,7 +7113,7 @@
         <v>46</v>
       </c>
       <c r="D18" s="7">
-        <v>34530</v>
+        <v>31146</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7095,7 +7128,7 @@
         <v>19</v>
       </c>
       <c r="I18" s="7">
-        <v>9796</v>
+        <v>8583</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7110,7 +7143,7 @@
         <v>65</v>
       </c>
       <c r="N18" s="7">
-        <v>44326</v>
+        <v>39729</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7133,46 +7166,46 @@
         <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>3170</v>
+        <v>3029</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>358</v>
+        <v>297</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>2400</v>
+        <v>2216</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>361</v>
+        <v>182</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
       </c>
       <c r="N19" s="7">
-        <v>5570</v>
+        <v>5245</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>363</v>
+        <v>235</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>134</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>170</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7184,43 +7217,43 @@
         <v>207</v>
       </c>
       <c r="D20" s="7">
-        <v>166254</v>
+        <v>162019</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>364</v>
+        <v>301</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>197</v>
+        <v>53</v>
       </c>
       <c r="H20" s="7">
         <v>145</v>
       </c>
       <c r="I20" s="7">
-        <v>100936</v>
+        <v>94204</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>368</v>
+        <v>190</v>
       </c>
       <c r="M20" s="7">
         <v>352</v>
       </c>
       <c r="N20" s="7">
-        <v>267189</v>
+        <v>256223</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>369</v>
+        <v>243</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>178</v>
+        <v>382</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>143</v>
@@ -7235,7 +7268,7 @@
         <v>211</v>
       </c>
       <c r="D21" s="7">
-        <v>169424</v>
+        <v>165048</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7250,7 +7283,7 @@
         <v>148</v>
       </c>
       <c r="I21" s="7">
-        <v>103336</v>
+        <v>96420</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7265,7 +7298,7 @@
         <v>359</v>
       </c>
       <c r="N21" s="7">
-        <v>272759</v>
+        <v>261468</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7288,46 +7321,46 @@
         <v>7</v>
       </c>
       <c r="D22" s="7">
-        <v>7120</v>
+        <v>6871</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>371</v>
+        <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>372</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>5270</v>
+        <v>4643</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>374</v>
+        <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>191</v>
+        <v>384</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
       </c>
       <c r="N22" s="7">
-        <v>12390</v>
+        <v>11514</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7339,46 +7372,46 @@
         <v>284</v>
       </c>
       <c r="D23" s="7">
-        <v>301809</v>
+        <v>301059</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>379</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>380</v>
+        <v>29</v>
       </c>
       <c r="H23" s="7">
         <v>283</v>
       </c>
       <c r="I23" s="7">
-        <v>315915</v>
+        <v>395641</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>196</v>
+        <v>389</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>382</v>
+        <v>26</v>
       </c>
       <c r="M23" s="7">
         <v>567</v>
       </c>
       <c r="N23" s="7">
-        <v>617724</v>
+        <v>696700</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7390,7 +7423,7 @@
         <v>291</v>
       </c>
       <c r="D24" s="7">
-        <v>308929</v>
+        <v>307930</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7405,7 +7438,7 @@
         <v>287</v>
       </c>
       <c r="I24" s="7">
-        <v>321185</v>
+        <v>400284</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7420,7 +7453,7 @@
         <v>578</v>
       </c>
       <c r="N24" s="7">
-        <v>630114</v>
+        <v>708214</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7443,16 +7476,16 @@
         <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>3124</v>
+        <v>2695</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>164</v>
+        <v>393</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>221</v>
+        <v>395</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7467,22 +7500,22 @@
         <v>35</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
       </c>
       <c r="N25" s="7">
-        <v>3124</v>
+        <v>2695</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>387</v>
+        <v>38</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7494,28 +7527,28 @@
         <v>300</v>
       </c>
       <c r="D26" s="7">
-        <v>324023</v>
+        <v>274842</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>167</v>
+        <v>397</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>224</v>
+        <v>398</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="H26" s="7">
         <v>137</v>
       </c>
       <c r="I26" s="7">
-        <v>122310</v>
+        <v>99825</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>30</v>
@@ -7524,13 +7557,13 @@
         <v>437</v>
       </c>
       <c r="N26" s="7">
-        <v>446334</v>
+        <v>374667</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>390</v>
+        <v>46</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>26</v>
@@ -7545,7 +7578,7 @@
         <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>327147</v>
+        <v>277537</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -7560,7 +7593,7 @@
         <v>137</v>
       </c>
       <c r="I27" s="7">
-        <v>122310</v>
+        <v>99825</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -7575,7 +7608,7 @@
         <v>440</v>
       </c>
       <c r="N27" s="7">
-        <v>449458</v>
+        <v>377362</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -7598,46 +7631,46 @@
         <v>24</v>
       </c>
       <c r="D28" s="7">
-        <v>19975</v>
+        <v>18817</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>321</v>
+        <v>267</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>392</v>
+        <v>221</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
       </c>
       <c r="I28" s="7">
-        <v>10238</v>
+        <v>9252</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>394</v>
+        <v>18</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>307</v>
+        <v>402</v>
       </c>
       <c r="M28" s="7">
         <v>36</v>
       </c>
       <c r="N28" s="7">
-        <v>30214</v>
+        <v>28069</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7649,46 +7682,46 @@
         <v>1563</v>
       </c>
       <c r="D29" s="7">
-        <v>1597733</v>
+        <v>1560554</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>327</v>
+        <v>274</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>399</v>
+        <v>228</v>
       </c>
       <c r="H29" s="7">
         <v>1193</v>
       </c>
       <c r="I29" s="7">
-        <v>986608</v>
+        <v>1018130</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>400</v>
+        <v>29</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>312</v>
+        <v>406</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>53</v>
+        <v>194</v>
       </c>
       <c r="M29" s="7">
         <v>2756</v>
       </c>
       <c r="N29" s="7">
-        <v>2584340</v>
+        <v>2578684</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>403</v>
+        <v>362</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7700,7 +7733,7 @@
         <v>1587</v>
       </c>
       <c r="D30" s="7">
-        <v>1617708</v>
+        <v>1579371</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -7715,7 +7748,7 @@
         <v>1205</v>
       </c>
       <c r="I30" s="7">
-        <v>996846</v>
+        <v>1027382</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -7730,7 +7763,7 @@
         <v>2792</v>
       </c>
       <c r="N30" s="7">
-        <v>2614554</v>
+        <v>2606753</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
